--- a/output/date/2021-12-18/2021-12-18_테이블.xlsx
+++ b/output/date/2021-12-18/2021-12-18_테이블.xlsx
@@ -439,7 +439,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>바퀴달린 이동식 간이 쇼파 &lt;b&gt;테이블&lt;/b&gt; 미니 침대용 책상 침대 위 높낮이조절 보조 협탁 원목</t>
+          <t>바퀴달린 이동식 간이 쇼파 테이블 미니 침대용 책상 침대 위 높낮이조절 보조 협탁 원목</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -497,7 +497,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>완소간소 트랜스포머 거실 리프트 &lt;b&gt;테이블&lt;/b&gt; 리프트업 쇼파&lt;b&gt;테이블&lt;/b&gt; 800</t>
+          <t>완소간소 트랜스포머 거실 리프트 테이블 리프트업 쇼파테이블 800</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>까르엠가구 대리석 골드 1200 스퀘어다리 소파 &lt;b&gt;테이블&lt;/b&gt;</t>
+          <t>까르엠가구 대리석 골드 1200 스퀘어다리 소파 테이블</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -629,7 +629,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>라운드비 원형 유리 사이드&lt;b&gt;테이블&lt;/b&gt; 높이조절</t>
+          <t>라운드비 원형 유리 사이드테이블 높이조절</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>플레르가구 햄프 노트북 미니 간이 원목 소파 사이드 &lt;b&gt;테이블&lt;/b&gt;</t>
+          <t>플레르가구 햄프 노트북 미니 간이 원목 소파 사이드 테이블</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>사사 자이언트 리프트&lt;b&gt;테이블&lt;/b&gt;</t>
+          <t>사사 자이언트 리프트테이블</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -815,7 +815,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>이동식 사이드&lt;b&gt;테이블&lt;/b&gt; 보조책상 바퀴 베드 쇼파 침대 높이</t>
+          <t>이동식 사이드테이블 보조책상 바퀴 베드 쇼파 침대 높이</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>포더홈 플랫 리빙 거실 소파 &lt;b&gt;테이블&lt;/b&gt; 높은형</t>
+          <t>포더홈 플랫 리빙 거실 소파 테이블 높은형</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>티엔느디자인 루시 포세린 세라믹 대리석 마블 골드 거실 소파 &lt;b&gt;테이블&lt;/b&gt; 600+800 세트 A타입</t>
+          <t>티엔느디자인 루시 포세린 세라믹 대리석 마블 골드 거실 소파 테이블 600+800 세트 A타입</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1001,7 +1001,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>이동식 접이식 식탁 &lt;b&gt;테이블&lt;/b&gt; 원형&lt;b&gt;탁자&lt;/b&gt; 가족 이동형</t>
+          <t>이동식 접이식 식탁 테이블 원형탁자 가족 이동형</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>예다움 뮌헨 소파 침대 사이드 &lt;b&gt;테이블&lt;/b&gt; 협탁 500x350</t>
+          <t>예다움 뮌헨 소파 침대 사이드 테이블 협탁 500x350</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>티엔느디자인 안나 포세린 세라믹 소파 &lt;b&gt;테이블&lt;/b&gt; 스테인리스 골드 도금 사각 상판</t>
+          <t>티엔느디자인 안나 포세린 세라믹 소파 테이블 스테인리스 골드 도금 사각 상판</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1187,7 +1187,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>예다움 뉴캐슬 좌식 소파 커피 티 &lt;b&gt;테이블&lt;/b&gt; 좌식식탁 거실 좌탁 엔틱&lt;b&gt;테이블&lt;/b&gt;</t>
+          <t>예다움 뉴캐슬 좌식 소파 커피 티 테이블 좌식식탁 거실 좌탁 엔틱테이블</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1253,7 +1253,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>나나트리 피코 슬림 디자인 커피숍 쇼파 간이 사이드 &lt;b&gt;테이블&lt;/b&gt;</t>
+          <t>나나트리 피코 슬림 디자인 커피숍 쇼파 간이 사이드 테이블</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1315,7 +1315,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>일룸 델타 리프트업 소파 &lt;b&gt;테이블&lt;/b&gt;</t>
+          <t>일룸 델타 리프트업 소파 테이블</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>레트로하우스 비아 원목 접이식 거실&lt;b&gt;테이블&lt;/b&gt; 좌식 소파 &lt;b&gt;테이블&lt;/b&gt;</t>
+          <t>레트로하우스 비아 원목 접이식 거실테이블 좌식 소파 테이블</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>고무나무 원목 좌탁 소파&lt;b&gt;테이블&lt;/b&gt; 거실 접이식&lt;b&gt;테이블&lt;/b&gt;</t>
+          <t>고무나무 원목 좌탁 소파테이블 거실 접이식테이블</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1505,7 +1505,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>까르엠가구 대리석 골드 600 + 800 소파 &lt;b&gt;테이블&lt;/b&gt;</t>
+          <t>까르엠가구 대리석 골드 600 + 800 소파 테이블</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>노르웨이숲 원목 거실&lt;b&gt;테이블&lt;/b&gt; 900</t>
+          <t>노르웨이숲 원목 거실테이블 900</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1637,7 +1637,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>완소간소 트랜스포머 거실 리프트 &lt;b&gt;테이블&lt;/b&gt; 1200</t>
+          <t>완소간소 트랜스포머 거실 리프트 테이블 1200</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1703,7 +1703,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>노르웨이숲 뉴송 우드슬랩 식탁 &lt;b&gt;테이블&lt;/b&gt; 1600 스틸다리 타입A</t>
+          <t>노르웨이숲 뉴송 우드슬랩 식탁 테이블 1600 스틸다리 타입A</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1769,7 +1769,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>OMT 이동식 사이드 &lt;b&gt;테이블&lt;/b&gt; 거실 소파 침대 ONA-306</t>
+          <t>OMT 이동식 사이드 테이블 거실 소파 침대 ONA-306</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>사이드&lt;b&gt;테이블&lt;/b&gt; 소</t>
+          <t>사이드테이블 소</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1893,7 +1893,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>레트로하우스 좁고긴 베란다 창가 원목 사이드 슬림&lt;b&gt;테이블&lt;/b&gt; 800</t>
+          <t>레트로하우스 좁고긴 베란다 창가 원목 사이드 슬림테이블 800</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1959,7 +1959,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>이동식 사이드&lt;b&gt;테이블&lt;/b&gt; 간이 보조 책상 높이조절 인강</t>
+          <t>이동식 사이드테이블 간이 보조 책상 높이조절 인강</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2017,7 +2017,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>침대 소파 철제 미니 &lt;b&gt;테이블&lt;/b&gt; 대리석 2인 티 &lt;b&gt;테이블&lt;/b&gt;</t>
+          <t>침대 소파 철제 미니 테이블 대리석 2인 티 테이블</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2075,7 +2075,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>바퀴달린 각도 이동식 간이 쇼파 &lt;b&gt;테이블&lt;/b&gt; 미니 침대용 책상 침대 위 높낮이조절 보조 원목</t>
+          <t>바퀴달린 각도 이동식 간이 쇼파 테이블 미니 침대용 책상 침대 위 높낮이조절 보조 원목</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2133,7 +2133,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>까르엠가구 대리석 골드 1200 엑스다리 소파 &lt;b&gt;테이블&lt;/b&gt;</t>
+          <t>까르엠가구 대리석 골드 1200 엑스다리 소파 테이블</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2199,7 +2199,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>에보니아 소토퍼 이동식 보조 사이드&lt;b&gt;테이블&lt;/b&gt; 900 소파&lt;b&gt;테이블&lt;/b&gt;</t>
+          <t>에보니아 소토퍼 이동식 보조 사이드테이블 900 소파테이블</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2265,7 +2265,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>북유럽 모던 원형 소나무 원목 커피 &lt;b&gt;테이블&lt;/b&gt; 티 거실 소파 카페</t>
+          <t>북유럽 모던 원형 소나무 원목 커피 테이블 티 거실 소파 카페</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>페라모 버디 포세린 통 세라믹 대리석 원형 거실 소파 &lt;b&gt;테이블&lt;/b&gt;</t>
+          <t>페라모 버디 포세린 통 세라믹 대리석 원형 거실 소파 테이블</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>통원목 우드슬랩 카페 &lt;b&gt;테이블&lt;/b&gt;</t>
+          <t>통원목 우드슬랩 카페 테이블</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2443,7 +2443,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>보루네오 통원목 뉴송우드슬랩 원목카페&lt;b&gt;테이블&lt;/b&gt; 식탁</t>
+          <t>보루네오 통원목 뉴송우드슬랩 원목카페테이블 식탁</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2505,7 +2505,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>홀로그램&lt;b&gt;테이블&lt;/b&gt; 레인보우&lt;b&gt;테이블&lt;/b&gt; 유리 아크릴&lt;b&gt;테이블&lt;/b&gt;</t>
+          <t>홀로그램테이블 레인보우테이블 유리 아크릴테이블</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2563,7 +2563,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>이동식 소파 침대 간이&lt;b&gt;테이블&lt;/b&gt; 사이드&lt;b&gt;테이블&lt;/b&gt; 원목 거실&lt;b&gt;테이블&lt;/b&gt;</t>
+          <t>이동식 소파 침대 간이테이블 사이드테이블 원목 거실테이블</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2621,7 +2621,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>제이엘 뉴송 우드슬랩 카페 &lt;b&gt;테이블&lt;/b&gt;</t>
+          <t>제이엘 뉴송 우드슬랩 카페 테이블</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2679,7 +2679,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>지이라이프 접이식 온열 &lt;b&gt;테이블&lt;/b&gt; 코타츠</t>
+          <t>지이라이프 접이식 온열 테이블 코타츠</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2745,7 +2745,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>창가 벽 슬림 베란다 원목 좁고 긴 폭좁은 침대 간이 틈새 보조 사이드 &lt;b&gt;테이블&lt;/b&gt; 책상</t>
+          <t>창가 벽 슬림 베란다 원목 좁고 긴 폭좁은 침대 간이 틈새 보조 사이드 테이블 책상</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>북유럽 투명 강화유리 소파 인테리어 거실 &lt;b&gt;테이블&lt;/b&gt;</t>
+          <t>북유럽 투명 강화유리 소파 인테리어 거실 테이블</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2861,7 +2861,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>이케아 MELLTORP 멜토르프 4인용 &lt;b&gt;테이블&lt;/b&gt; 125x75</t>
+          <t>이케아 MELLTORP 멜토르프 4인용 테이블 125x75</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2927,7 +2927,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>레트로하우스 HPM 크리미 반타원형 원목&lt;b&gt;테이블&lt;/b&gt; 1200 내추럴 화이트식탁</t>
+          <t>레트로하우스 HPM 크리미 반타원형 원목테이블 1200 내추럴 화이트식탁</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2993,7 +2993,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>오투 피카 확장형 4인 &lt;b&gt;테이블&lt;/b&gt;</t>
+          <t>오투 피카 확장형 4인 테이블</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -3059,7 +3059,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>SR100 라움 퓨어 세라믹&lt;b&gt;테이블&lt;/b&gt; 스퀘어타입 1800</t>
+          <t>SR100 라움 퓨어 세라믹테이블 스퀘어타입 1800</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -3121,7 +3121,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>마켓비 DUGED 사이드&lt;b&gt;테이블&lt;/b&gt; KS1032TB</t>
+          <t>마켓비 DUGED 사이드테이블 KS1032TB</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -3187,7 +3187,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>까사미아 onion 베이 소파 사이드&lt;b&gt;테이블&lt;/b&gt;</t>
+          <t>까사미아 onion 베이 소파 사이드테이블</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -3253,7 +3253,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>침대 사이드 &lt;b&gt;테이블&lt;/b&gt; 폰 스탠드</t>
+          <t>침대 사이드 테이블 폰 스탠드</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -3311,7 +3311,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>스칸디무드 쿠스토 이동식 확장형 접이식 식탁 &lt;b&gt;테이블&lt;/b&gt;</t>
+          <t>스칸디무드 쿠스토 이동식 확장형 접이식 식탁 테이블</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -3369,7 +3369,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>루나 &lt;b&gt;테이블&lt;/b&gt; 사이드 거실 소파 인테리어 데스크 책상</t>
+          <t>루나 테이블 사이드 거실 소파 인테리어 데스크 책상</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -3435,7 +3435,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>페라모 타워 천연 대리석 로즈골드 소파 거실 &lt;b&gt;테이블&lt;/b&gt; 1300</t>
+          <t>페라모 타워 천연 대리석 로즈골드 소파 거실 테이블 1300</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -3497,7 +3497,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>가구느낌 베디&lt;b&gt;테이블&lt;/b&gt; 침대 간이 이동식 배드</t>
+          <t>가구느낌 베디테이블 침대 간이 이동식 배드</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -3563,7 +3563,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>오노홈 루니 타원형&lt;b&gt;테이블&lt;/b&gt; 라미네이트 라운드 6인</t>
+          <t>오노홈 루니 타원형테이블 라미네이트 라운드 6인</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>한샘 피코 리프트업 소파&lt;b&gt;테이블&lt;/b&gt; 플랩도어형</t>
+          <t>한샘 피코 리프트업 소파테이블 플랩도어형</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -3691,7 +3691,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>라자가구 위드 1200 리프트업 거실 &lt;b&gt;테이블&lt;/b&gt; cw150</t>
+          <t>라자가구 위드 1200 리프트업 거실 테이블 cw150</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -3757,7 +3757,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>라움 퓨어 올화이트 타원형 세라믹&lt;b&gt;테이블&lt;/b&gt; 4인 6인식탁</t>
+          <t>라움 퓨어 올화이트 타원형 세라믹테이블 4인 6인식탁</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3823,7 +3823,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>엘문도 소파사이드&lt;b&gt;테이블&lt;/b&gt; 거실 침대 협탁 간이보조</t>
+          <t>엘문도 소파사이드테이블 거실 침대 협탁 간이보조</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3885,7 +3885,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>이동식 바퀴달린 침대 베드 &lt;b&gt;테이블&lt;/b&gt; 책상 위 옆 침대용 높낮이조절 쇼파 보조</t>
+          <t>이동식 바퀴달린 침대 베드 테이블 책상 위 옆 침대용 높낮이조절 쇼파 보조</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3943,7 +3943,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>국산 접이식 좌식 &lt;b&gt;테이블&lt;/b&gt; 거실 소파 커피 티 좌탁 타원형 마블 인테리어 밥상 원룸 식탁</t>
+          <t>국산 접이식 좌식 테이블 거실 소파 커피 티 좌탁 타원형 마블 인테리어 밥상 원룸 식탁</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -4005,7 +4005,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>루나랩 사이드 &lt;b&gt;테이블&lt;/b&gt; 001</t>
+          <t>루나랩 사이드 테이블 001</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -4067,7 +4067,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>헤즈로 레스토 원목 좌탁 거실 소파 &lt;b&gt;테이블&lt;/b&gt; 1200</t>
+          <t>헤즈로 레스토 원목 좌탁 거실 소파 테이블 1200</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -4129,7 +4129,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>한샘 스퀘어 철제 사이드&lt;b&gt;테이블&lt;/b&gt;</t>
+          <t>한샘 스퀘어 철제 사이드테이블</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -4195,7 +4195,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>페라모 쇼파&lt;b&gt;테이블&lt;/b&gt; 천연 대리석 로즈골드 원형 사르덴 Sarden</t>
+          <t>페라모 쇼파테이블 천연 대리석 로즈골드 원형 사르덴 Sarden</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -4257,7 +4257,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>라로퍼니처 클로버 원목 사이드 &lt;b&gt;테이블&lt;/b&gt; 600 800 소파 침대 발받침 이동식 보조 &lt;b&gt;탁자&lt;/b&gt; 미니 협탁</t>
+          <t>라로퍼니처 클로버 원목 사이드 테이블 600 800 소파 침대 발받침 이동식 보조 탁자 미니 협탁</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -4323,7 +4323,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>일룸 리다 거실&lt;b&gt;테이블&lt;/b&gt;</t>
+          <t>일룸 리다 거실테이블</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -4389,7 +4389,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>바네스데코 침대 노트북 랩탑 베드 &lt;b&gt;테이블&lt;/b&gt; 3컬러</t>
+          <t>바네스데코 침대 노트북 랩탑 베드 테이블 3컬러</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -4455,7 +4455,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>이즈네이처 원목 사이드&lt;b&gt;테이블&lt;/b&gt; 수납공간 거실&lt;b&gt;테이블&lt;/b&gt;</t>
+          <t>이즈네이처 원목 사이드테이블 수납공간 거실테이블</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -4521,7 +4521,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>메종드에디션 레인트리 통원목 우드슬랩 4 6 8인용식탁 스타벅스 &lt;b&gt;테이블&lt;/b&gt; 1800</t>
+          <t>메종드에디션 레인트리 통원목 우드슬랩 4 6 8인용식탁 스타벅스 테이블 1800</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -4583,7 +4583,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>마켓비 NETUD 원목수납&lt;b&gt;테이블&lt;/b&gt; 98x50 아카시아</t>
+          <t>마켓비 NETUD 원목수납테이블 98x50 아카시아</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -4649,7 +4649,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>폭좁은 틈새 긴&lt;b&gt;테이블&lt;/b&gt; 원목 소파 침대 뒤 &lt;b&gt;테이블&lt;/b&gt; 책장 선반</t>
+          <t>폭좁은 틈새 긴테이블 원목 소파 침대 뒤 테이블 책장 선반</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -4707,7 +4707,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>아이홉 접이식 좌식&lt;b&gt;테이블&lt;/b&gt; 원목 1200</t>
+          <t>아이홉 접이식 좌식테이블 원목 1200</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -4765,7 +4765,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>루나랩 사이드 &lt;b&gt;테이블&lt;/b&gt; 002</t>
+          <t>루나랩 사이드 테이블 002</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -4827,7 +4827,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>한샘 클린트 모던 소파&lt;b&gt;테이블&lt;/b&gt;</t>
+          <t>한샘 클린트 모던 소파테이블</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -4893,7 +4893,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>리바트 무니 리프트업 &lt;b&gt;테이블&lt;/b&gt;</t>
+          <t>리바트 무니 리프트업 테이블</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -4959,7 +4959,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>e스마트 스틸 사각 거실 주방 카페 식탁 &lt;b&gt;테이블&lt;/b&gt; 4인</t>
+          <t>e스마트 스틸 사각 거실 주방 카페 식탁 테이블 4인</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -5025,7 +5025,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>소 라탄 &lt;b&gt;테이블&lt;/b&gt; 좌식 미니 원목 원탁 원형 티&lt;b&gt;테이블&lt;/b&gt;</t>
+          <t>소 라탄 테이블 좌식 미니 원목 원탁 원형 티테이블</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -5083,7 +5083,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>일룸 타우 사이드&lt;b&gt;테이블&lt;/b&gt;</t>
+          <t>일룸 타우 사이드테이블</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -5149,7 +5149,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>오노홈 루니 4인 6인 &lt;b&gt;테이블&lt;/b&gt; 라미네이트 식탁 라운드&lt;b&gt;테이블&lt;/b&gt; 화이트식탁</t>
+          <t>오노홈 루니 4인 6인 테이블 라미네이트 식탁 라운드테이블 화이트식탁</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -5211,7 +5211,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>지이라이프 에타홈 코타츠 &lt;b&gt;테이블&lt;/b&gt; KOW-80</t>
+          <t>지이라이프 에타홈 코타츠 테이블 KOW-80</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -5277,7 +5277,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>한샘 무드 강화유리 소파&lt;b&gt;테이블&lt;/b&gt;</t>
+          <t>한샘 무드 강화유리 소파테이블</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -5339,7 +5339,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>오밀리아 레마 원목 세라믹 포세린 거실 소파 좌식 티 &lt;b&gt;테이블&lt;/b&gt;</t>
+          <t>오밀리아 레마 원목 세라믹 포세린 거실 소파 좌식 티 테이블</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -5397,7 +5397,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>도베르만 트레이 사이드 &lt;b&gt;테이블&lt;/b&gt; 침대 소파 협탁</t>
+          <t>도베르만 트레이 사이드 테이블 침대 소파 협탁</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -5455,7 +5455,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>이케아 대리석식탁 확장형 인덕션식탁 6인용세라믹식탁 접이식&lt;b&gt;테이블&lt;/b&gt;</t>
+          <t>이케아 대리석식탁 확장형 인덕션식탁 6인용세라믹식탁 접이식테이블</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -5521,7 +5521,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>좁고 긴 &lt;b&gt;테이블&lt;/b&gt; 미니 소파 침대 틈새 모조대리석 선반</t>
+          <t>좁고 긴 테이블 미니 소파 침대 틈새 모조대리석 선반</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -5579,7 +5579,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>레이디가구 다정다감 고무나무 원목 거실 소파&lt;b&gt;테이블&lt;/b&gt;</t>
+          <t>레이디가구 다정다감 고무나무 원목 거실 소파테이블</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -5645,7 +5645,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>알렉스 리프트업 소파 거실&lt;b&gt;테이블&lt;/b&gt; ALEX 발리오크</t>
+          <t>알렉스 리프트업 소파 거실테이블 ALEX 발리오크</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -5703,7 +5703,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>일룸 타우 사이드&lt;b&gt;테이블&lt;/b&gt; 전면형</t>
+          <t>일룸 타우 사이드테이블 전면형</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -5769,7 +5769,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>비트라 이사무 노구치 유아인 거실 커피 유리 원목 트레이 식탁 &lt;b&gt;테이블&lt;/b&gt;</t>
+          <t>비트라 이사무 노구치 유아인 거실 커피 유리 원목 트레이 식탁 테이블</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -5827,7 +5827,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>이케아 LACK 사이드 &lt;b&gt;테이블&lt;/b&gt;  104.499.09</t>
+          <t>이케아 LACK 사이드 테이블  104.499.09</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -5889,7 +5889,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>일룸 레마 800폭 원형&lt;b&gt;테이블&lt;/b&gt;</t>
+          <t>일룸 레마 800폭 원형테이블</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -5951,7 +5951,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>고타츠 일본식 좌식 코다츠 코타츠 난방 이불 &lt;b&gt;테이블&lt;/b&gt;</t>
+          <t>고타츠 일본식 좌식 코다츠 코타츠 난방 이불 테이블</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -6009,7 +6009,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>베스트리빙 메드퍼드 접이식 2인 4인 6인 확장형 식탁&lt;b&gt;테이블&lt;/b&gt;</t>
+          <t>베스트리빙 메드퍼드 접이식 2인 4인 6인 확장형 식탁테이블</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -6075,7 +6075,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>레트로하우스 원형&lt;b&gt;테이블&lt;/b&gt; 라떼 고무나무 원목식탁 1000</t>
+          <t>레트로하우스 원형테이블 라떼 고무나무 원목식탁 1000</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -6141,7 +6141,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>디오 디코 아카시아 원목 사이드 &lt;b&gt;테이블&lt;/b&gt; 600</t>
+          <t>디오 디코 아카시아 원목 사이드 테이블 600</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -6199,7 +6199,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>포더홈 스테이 6인 타원형 원목 1800 식탁 &lt;b&gt;테이블&lt;/b&gt;</t>
+          <t>포더홈 스테이 6인 타원형 원목 1800 식탁 테이블</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -6261,7 +6261,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>OMT 이동식 사이드 &lt;b&gt;테이블&lt;/b&gt; 책상 노트북 태블릿홈 ONA-64TB</t>
+          <t>OMT 이동식 사이드 테이블 책상 노트북 태블릿홈 ONA-64TB</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -6323,7 +6323,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>리센트 로베 이동식 확장형 접이식 식탁 &lt;b&gt;테이블&lt;/b&gt;</t>
+          <t>리센트 로베 이동식 확장형 접이식 식탁 테이블</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -6389,7 +6389,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>노르웨이숲 높낮이조절 간이 이동식 높이조절 쇼파 보조 미니 &lt;b&gt;테이블&lt;/b&gt; 책상 협탁</t>
+          <t>노르웨이숲 높낮이조절 간이 이동식 높이조절 쇼파 보조 미니 테이블 책상 협탁</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -6455,7 +6455,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>이케아 LACK 커피 &lt;b&gt;테이블&lt;/b&gt;</t>
+          <t>이케아 LACK 커피 테이블</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -6521,7 +6521,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>러블 포세린 세라믹 프레임 거실 소파&lt;b&gt;테이블&lt;/b&gt;</t>
+          <t>러블 포세린 세라믹 프레임 거실 소파테이블</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -6579,7 +6579,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>까사채움 스마트 리프트업 거실&lt;b&gt;테이블&lt;/b&gt;</t>
+          <t>까사채움 스마트 리프트업 거실테이블</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -6641,7 +6641,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>오노홈 오크원형화이트&lt;b&gt;테이블&lt;/b&gt; 라운드&lt;b&gt;테이블&lt;/b&gt; 원형식탁 2인 4인</t>
+          <t>오노홈 오크원형화이트테이블 라운드테이블 원형식탁 2인 4인</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
